--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-17 20:22:21</t>
+          <t>2024-11-22 19:49:52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1023</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-22 19:49:52</t>
+          <t>2024-11-25 19:15:26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1000</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-25 19:15:26</t>
+          <t>2024-12-11 12:44:01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1082</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-11 12:44:01</t>
+          <t>2024-12-23 10:47:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1121</v>
+        <v>1129</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-23 10:47:40</t>
+          <t>2024-12-23 11:01:19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1129</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-23 11:01:19</t>
+          <t>2024-12-23 11:18:12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-23 11:18:12</t>
+          <t>2024-12-23 11:33:08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1060</v>
+        <v>1057</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-23 11:33:08</t>
+          <t>2024-12-23 11:40:04</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-23 11:40:04</t>
+          <t>2024-12-26 09:47:40</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>1057</v>
+        <v>1076</v>
       </c>
     </row>
   </sheetData>

--- a/api/logs/log_configllm.xlsx
+++ b/api/logs/log_configllm.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-12-26 09:47:40</t>
+          <t>2024-12-27 20:35:03</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
